--- a/PRACTICE/m4/problem-2.xlsx
+++ b/PRACTICE/m4/problem-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\6044_ADS-1\practice\m4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79190FB-8D70-4138-B0A0-7F9021D3AF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224CF4A-B550-481D-92A9-809B52E767EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" xr2:uid="{6EB2022D-2908-4F48-A108-49C6957D36A1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>pop 9</t>
   </si>
@@ -103,13 +103,19 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>enqueue</t>
+  </si>
+  <si>
+    <t>dequeue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +145,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="DIN Next W01 Regular"/>
     </font>
   </fonts>
   <fills count="6">
@@ -224,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,10 +256,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -342,52 +360,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C0ECBA-9653-4BA6-800B-85F0DB85D239}" name="Table1" displayName="Table1" ref="E3:H13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C0ECBA-9653-4BA6-800B-85F0DB85D239}" name="Table1" displayName="Table1" ref="E3:H13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="E3:H13" xr:uid="{14E4625B-A7B1-4500-A489-0199D53AB0CE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{368B0DEC-D3B2-4610-B947-B5C9F08EF7CE}" name="A" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C27B5F71-062B-48EC-A430-B6EF551E70F3}" name="PUSH" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9A86E3B5-BB31-4173-A0A2-3C3A3B5FA8FE}" name="POP" dataDxfId="20" dataCellStyle="Calculation"/>
-    <tableColumn id="4" xr3:uid="{487ED3F3-0234-43BA-A757-738E77C6D83E}" name="Column1" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{368B0DEC-D3B2-4610-B947-B5C9F08EF7CE}" name="A" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C27B5F71-062B-48EC-A430-B6EF551E70F3}" name="PUSH" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9A86E3B5-BB31-4173-A0A2-3C3A3B5FA8FE}" name="POP" dataDxfId="18" dataCellStyle="Calculation"/>
+    <tableColumn id="4" xr3:uid="{487ED3F3-0234-43BA-A757-738E77C6D83E}" name="Column1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA3A7944-0464-49E4-9AE6-057B89C3149F}" name="Table2" displayName="Table2" ref="I15:L25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA3A7944-0464-49E4-9AE6-057B89C3149F}" name="Table2" displayName="Table2" ref="I15:L25" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="I15:L25" xr:uid="{40D1D960-21B3-488F-9515-50BED02EBA03}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4770632C-2A28-4296-B4B6-D3EF0C1EBFEB}" name="D" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B6A6822B-847C-4C04-8E83-6BAE40679D99}" name="PUSH" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{08DBB589-38BB-4AC1-982C-3DA59AE58534}" name="POP" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{46D968F4-9F5B-4093-B5D2-62F9F0531023}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4770632C-2A28-4296-B4B6-D3EF0C1EBFEB}" name="D" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B6A6822B-847C-4C04-8E83-6BAE40679D99}" name="PUSH" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{08DBB589-38BB-4AC1-982C-3DA59AE58534}" name="POP" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{46D968F4-9F5B-4093-B5D2-62F9F0531023}" name="Column1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0995CC13-4FD8-48EC-8D3E-7E69C136C9EB}" name="Table3" displayName="Table3" ref="M3:P13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0995CC13-4FD8-48EC-8D3E-7E69C136C9EB}" name="Table3" displayName="Table3" ref="M3:P13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="M3:P13" xr:uid="{9A600610-8169-4BD2-B6B4-444447AE70CD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7839EC4-6578-4010-B3E1-9D5497940670}" name="E" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A7839EC4-6578-4010-B3E1-9D5497940670}" name="E" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{353CBD83-8A4D-4156-85CE-116DFB6CE4AA}" name="PUSH"/>
-    <tableColumn id="3" xr3:uid="{0D000205-D00B-415E-BB7C-D63AFEF3E58D}" name="POP" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BB3E6C2A-979E-43AB-86A5-5CBE2EA0FBBB}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0D000205-D00B-415E-BB7C-D63AFEF3E58D}" name="POP" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BB3E6C2A-979E-43AB-86A5-5CBE2EA0FBBB}" name="Column1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B33AB40-D381-42AB-B7EF-627A2F0270AA}" name="Table4" displayName="Table4" ref="Q15:T25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B33AB40-D381-42AB-B7EF-627A2F0270AA}" name="Table4" displayName="Table4" ref="Q15:T25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="Q15:T25" xr:uid="{E29D6422-DA55-46EE-BF94-3B6D2374E5F2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F540CD90-9263-4FE7-A2D4-CFD0B720ECBF}" name="H" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3881C5E3-DDF5-4525-AF79-DEBED4BD5C82}" name="PUSH" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{11FC7F7A-374E-4555-855D-F1AFEBC75B11}" name="POP" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AE8A4AF6-EFF1-45FD-8307-C204BB51CE45}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F540CD90-9263-4FE7-A2D4-CFD0B720ECBF}" name="H" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3881C5E3-DDF5-4525-AF79-DEBED4BD5C82}" name="PUSH" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{11FC7F7A-374E-4555-855D-F1AFEBC75B11}" name="POP" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AE8A4AF6-EFF1-45FD-8307-C204BB51CE45}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1DD633-362C-4B17-9C5B-AD02345405AE}">
-  <dimension ref="C3:T25"/>
+  <dimension ref="C3:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
@@ -709,11 +727,11 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="3:20">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,11 +775,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="8">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9"/>
+    <row r="4" spans="3:20">
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
@@ -811,11 +829,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9"/>
+    <row r="5" spans="3:20">
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="1">
         <v>3</v>
       </c>
@@ -862,11 +880,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9"/>
+    <row r="6" spans="3:20">
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="1">
         <v>2</v>
       </c>
@@ -913,11 +931,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9"/>
+    <row r="7" spans="3:20">
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -967,11 +985,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9"/>
+    <row r="8" spans="3:20">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="1">
         <v>0</v>
       </c>
@@ -1018,11 +1036,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9"/>
+    <row r="9" spans="3:20">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="1">
         <v>9</v>
       </c>
@@ -1069,11 +1087,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9"/>
+    <row r="10" spans="3:20">
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="1">
         <v>8</v>
       </c>
@@ -1123,11 +1141,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
+    <row r="11" spans="3:20">
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="1">
         <v>7</v>
       </c>
@@ -1174,11 +1192,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9"/>
+    <row r="12" spans="3:20">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="1">
         <v>6</v>
       </c>
@@ -1222,11 +1240,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9"/>
+    <row r="13" spans="3:20">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="1">
         <v>5</v>
       </c>
@@ -1271,11 +1289,11 @@
       </c>
       <c r="T13" s="5"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="3:20">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1337,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+    <row r="16" spans="3:20">
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="1">
         <v>4</v>
       </c>
@@ -1333,7 +1351,7 @@
       <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="1">
@@ -1354,7 +1372,7 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="1">
@@ -1370,11 +1388,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
+    <row r="17" spans="3:20">
+      <c r="C17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="1">
         <v>6</v>
       </c>
@@ -1384,7 +1402,7 @@
       <c r="G17" s="1">
         <v>6</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="1">
         <v>3</v>
       </c>
@@ -1394,6 +1412,9 @@
       <c r="K17" s="1">
         <v>3</v>
       </c>
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="1">
         <v>4</v>
       </c>
@@ -1403,7 +1424,7 @@
       <c r="O17" s="1">
         <v>4</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="12"/>
       <c r="Q17" s="1">
         <v>1</v>
       </c>
@@ -1417,11 +1438,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7"/>
+    <row r="18" spans="3:20">
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="1">
         <v>8</v>
       </c>
@@ -1431,7 +1452,7 @@
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1">
         <v>2</v>
       </c>
@@ -1441,6 +1462,9 @@
       <c r="K18" s="1">
         <v>2</v>
       </c>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="1">
         <v>6</v>
       </c>
@@ -1450,7 +1474,7 @@
       <c r="O18" s="1">
         <v>6</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="1">
         <v>4</v>
       </c>
@@ -1464,11 +1488,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7"/>
+    <row r="19" spans="3:20">
+      <c r="C19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="1">
         <v>7</v>
       </c>
@@ -1478,7 +1502,7 @@
       <c r="G19" s="1">
         <v>7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="1">
@@ -1490,6 +1514,9 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="1">
         <v>5</v>
       </c>
@@ -1499,7 +1526,7 @@
       <c r="O19" s="1">
         <v>5</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="1">
@@ -1515,11 +1542,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7"/>
+    <row r="20" spans="3:20">
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="1">
         <v>5</v>
       </c>
@@ -1529,7 +1556,7 @@
       <c r="G20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -1539,6 +1566,9 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="1">
         <v>3</v>
       </c>
@@ -1548,7 +1578,7 @@
       <c r="O20" s="1">
         <v>3</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="12"/>
       <c r="Q20" s="1">
         <v>6</v>
       </c>
@@ -1562,11 +1592,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7"/>
+    <row r="21" spans="3:20">
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="1">
         <v>3</v>
       </c>
@@ -1576,7 +1606,7 @@
       <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="1">
         <v>5</v>
       </c>
@@ -1586,6 +1616,9 @@
       <c r="K21" s="1">
         <v>5</v>
       </c>
+      <c r="L21" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M21" s="1">
         <v>8</v>
       </c>
@@ -1595,7 +1628,7 @@
       <c r="O21" s="1">
         <v>8</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="12"/>
       <c r="Q21" s="1">
         <v>5</v>
       </c>
@@ -1609,11 +1642,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7"/>
+    <row r="22" spans="3:20">
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="1">
         <v>2</v>
       </c>
@@ -1623,7 +1656,7 @@
       <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="1">
@@ -1635,13 +1668,16 @@
       <c r="K22" s="1">
         <v>6</v>
       </c>
+      <c r="L22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1">
         <v>3</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="1">
@@ -1657,11 +1693,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7"/>
+    <row r="23" spans="3:20">
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="1">
         <v>9</v>
       </c>
@@ -1671,7 +1707,7 @@
       <c r="G23" s="1">
         <v>9</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="1">
         <v>7</v>
       </c>
@@ -1681,13 +1717,16 @@
       <c r="K23" s="1">
         <v>7</v>
       </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M23" s="1">
         <v>7</v>
       </c>
       <c r="N23" s="1">
         <v>2</v>
       </c>
-      <c r="P23" s="4"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1">
         <v>7</v>
       </c>
@@ -1701,18 +1740,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7"/>
+    <row r="24" spans="3:20">
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1">
         <v>8</v>
       </c>
@@ -1722,13 +1761,16 @@
       <c r="K24" s="1">
         <v>8</v>
       </c>
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M24" s="1">
         <v>2</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="1">
         <v>9</v>
       </c>
@@ -1742,11 +1784,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7"/>
+    <row r="25" spans="3:20">
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
@@ -1763,6 +1805,9 @@
       <c r="K25" s="1">
         <v>9</v>
       </c>
+      <c r="L25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M25" s="1">
         <v>9</v>
       </c>
@@ -1783,11 +1828,178 @@
         <v>20</v>
       </c>
     </row>
+    <row r="27" spans="3:20">
+      <c r="D27" s="9"/>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20">
+      <c r="D28" s="9"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20">
+      <c r="D29" s="9"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20">
+      <c r="D30" s="9"/>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>6</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20">
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20">
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16">
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8</v>
+      </c>
+      <c r="P33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16">
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9</v>
+      </c>
+      <c r="P34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="7:16">
+      <c r="G35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="7:16">
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16">
+      <c r="G37" s="1">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -1802,13 +2014,17 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="H22:H24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>